--- a/export/v1.0.6a/prefabs.xlsx
+++ b/export/v1.0.6a/prefabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\2025\pwsh\MicrotopiaData\export\v1.0.6a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46715596-CBFD-4358-97C8-B1978DFE32AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4493479-3E09-481C-8330-5E5BD9BE8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2685" windowWidth="27240" windowHeight="16950" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="1020" windowWidth="27240" windowHeight="13605" tabRatio="678" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factory_Recipies" sheetId="4" r:id="rId1"/>
@@ -4570,7 +4570,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -4605,53 +4615,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4832,26 +4795,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DEADB30-51C6-4394-ADDB-7B883218D4EE}" name="Buildings" displayName="Buildings" ref="A1:Q97" totalsRowShown="0" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DEADB30-51C6-4394-ADDB-7B883218D4EE}" name="Buildings" displayName="Buildings" ref="A1:Q97" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:Q97" xr:uid="{5DEADB30-51C6-4394-ADDB-7B883218D4EE}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6C00692E-1847-4743-BEEA-9CED786D9271}" name="CODE" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{AFC9F38A-49F4-4C91-8312-C7C9C17D10B9}" name="ORDER" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{90751A22-2F35-466A-AA1D-90654B78ECB1}" name="TITLE" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{D9DEC68A-EB6D-4D0C-AFA3-4ADC7BC77536}" name="DESCRIPTION" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{74F99D43-1893-4EAD-ABFD-FD28FD43AF05}" name="GROUP" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{D2379E42-7A38-476A-91B7-D36CCE79C819}" name="COST" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{CBDD3847-CDA7-458B-92AA-AE9346976FBE}" name="AUTO RECIPE" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{D37702E6-F40E-4E42-9DB7-FD11F55BAE7D}" name="N BUILDS" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{6CD4EBBC-99C9-41E4-A0AF-1D5FEB6AA696}" name="NO DEMOLISH" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{35045B70-726D-4D6E-9B35-41F47356074C}" name="IN DEMO" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{DD254856-EEF2-4B99-A8B4-390332DB168A}" name="ANTS" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{6B6CF81E-3BE7-4AB3-9E3C-795A1FBC6C6F}" name="ENERGY CONSUMPTION" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{73E37656-EF80-4DC6-B495-D4B5A10861B7}" name="STORAGE CAPACITY" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{C22B3EC1-5545-4AEF-B8D4-39AD514DA66D}" name="ENERGY CAPACITY" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{8F0A2974-EFB1-462C-BD2A-EEAA2ED10419}" name="PREFAB" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{5A6B69E6-DE06-4897-B870-718022096402}" name="POLLUTION" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{AFE866C0-4E7C-4D23-8144-35B26C424AF4}" name="TUTORIAL" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{6C00692E-1847-4743-BEEA-9CED786D9271}" name="CODE" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{AFC9F38A-49F4-4C91-8312-C7C9C17D10B9}" name="ORDER" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{90751A22-2F35-466A-AA1D-90654B78ECB1}" name="TITLE" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D9DEC68A-EB6D-4D0C-AFA3-4ADC7BC77536}" name="DESCRIPTION" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{74F99D43-1893-4EAD-ABFD-FD28FD43AF05}" name="GROUP" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{D2379E42-7A38-476A-91B7-D36CCE79C819}" name="COST" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{CBDD3847-CDA7-458B-92AA-AE9346976FBE}" name="AUTO RECIPE" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{D37702E6-F40E-4E42-9DB7-FD11F55BAE7D}" name="N BUILDS" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{6CD4EBBC-99C9-41E4-A0AF-1D5FEB6AA696}" name="NO DEMOLISH" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{35045B70-726D-4D6E-9B35-41F47356074C}" name="IN DEMO" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{DD254856-EEF2-4B99-A8B4-390332DB168A}" name="ANTS" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{6B6CF81E-3BE7-4AB3-9E3C-795A1FBC6C6F}" name="ENERGY CONSUMPTION" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{73E37656-EF80-4DC6-B495-D4B5A10861B7}" name="STORAGE CAPACITY" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{C22B3EC1-5545-4AEF-B8D4-39AD514DA66D}" name="ENERGY CAPACITY" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{8F0A2974-EFB1-462C-BD2A-EEAA2ED10419}" name="PREFAB" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{5A6B69E6-DE06-4897-B870-718022096402}" name="POLLUTION" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{AFE866C0-4E7C-4D23-8144-35B26C424AF4}" name="TUTORIAL" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5108,7 +5071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6D8C21-5A5F-4D96-AB45-B9A4D15B7274}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -7965,7 +7928,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L157">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8011,7 +7974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6296468-A80E-409B-81ED-ABB71B21DCFC}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -11270,12 +11233,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:Q97">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B97">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11322,8 +11285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9317483D-9D5A-486E-A932-8F5D87E08C90}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12954,7 +12917,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:X40">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14975,7 +14938,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:N75">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15728,7 +15691,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:O32">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16050,7 +16013,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G19">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
